--- a/results/score_2023.06.01-2023.06.15.xlsx
+++ b/results/score_2023.06.01-2023.06.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성물산</t>
+          <t>현대차</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -529,7 +529,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>현대차</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>삼성물산</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>아모레퍼시픽</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -633,7 +633,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>아모레퍼시픽</t>
+          <t>포스코퓨처엠</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>포스코퓨처엠</t>
+          <t>롯데케미칼</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -659,7 +659,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>크래프톤</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>우리금융지주</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>삼성생명</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>롯데케미칼</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>엔씨소프트</t>
+          <t>삼성생명</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -750,7 +750,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>엔씨소프트</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>크래프톤</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -776,7 +776,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>하이브</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>삼성SDI</t>
+          <t>SK하이닉스</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -815,7 +815,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>삼성SDI</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>하이브</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>넷마블</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -880,10 +880,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>HD한국조선해양</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>한국전력</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>-5</v>
       </c>
     </row>
